--- a/results/DT/375Hz_2classes/res_basic.xlsx
+++ b/results/DT/375Hz_2classes/res_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit\results\DT\375Hz_2classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D64BC5-09AA-45A0-BB14-5A7EDE564637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB593B2E-22F2-4B8B-8423-EC2CE52615DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>load</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>acc_test</t>
+  </si>
+  <si>
+    <t>prec_test</t>
+  </si>
+  <si>
+    <t>rec_test</t>
+  </si>
+  <si>
+    <t>f1_test</t>
   </si>
   <si>
     <t>hyperparameters</t>
@@ -99,6 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -456,19 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,13 +489,22 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -495,16 +512,25 @@
       <c r="D2">
         <v>0.72</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.79</v>
+      </c>
+      <c r="F2">
+        <v>0.78</v>
+      </c>
+      <c r="G2">
+        <v>0.78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -512,16 +538,25 @@
       <c r="D3">
         <v>0.69</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.77</v>
+      </c>
+      <c r="F3">
+        <v>0.78</v>
+      </c>
+      <c r="G3">
+        <v>0.77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -529,16 +564,25 @@
       <c r="D4">
         <v>0.69</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.76</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -546,16 +590,25 @@
       <c r="D5">
         <v>0.26</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.27</v>
+      </c>
+      <c r="F5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -563,16 +616,25 @@
       <c r="D6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.66</v>
+      </c>
+      <c r="F6">
+        <v>0.77</v>
+      </c>
+      <c r="G6">
+        <v>0.71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -580,16 +642,25 @@
       <c r="D7">
         <v>0.61</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.86</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -597,16 +668,25 @@
       <c r="D8">
         <v>0.73</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.73</v>
+      </c>
+      <c r="F8">
+        <v>0.95</v>
+      </c>
+      <c r="G8">
+        <v>0.83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -614,16 +694,25 @@
       <c r="D9">
         <v>0.75</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.84</v>
+      </c>
+      <c r="F9">
+        <v>0.78</v>
+      </c>
+      <c r="G9">
+        <v>0.81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -631,16 +720,25 @@
       <c r="D10">
         <v>0.77</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.82</v>
+      </c>
+      <c r="F10">
+        <v>0.82</v>
+      </c>
+      <c r="G10">
+        <v>0.82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -648,16 +746,25 @@
       <c r="D11">
         <v>0.82</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.81</v>
+      </c>
+      <c r="F11">
+        <v>0.95</v>
+      </c>
+      <c r="G11">
+        <v>0.87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -665,16 +772,25 @@
       <c r="D12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.73</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>0.66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -682,16 +798,25 @@
       <c r="D13">
         <v>0.73</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.88</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+      <c r="G13">
+        <v>0.78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -699,16 +824,25 @@
       <c r="D14">
         <v>0.67</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.72</v>
+      </c>
+      <c r="F14">
+        <v>0.82</v>
+      </c>
+      <c r="G14">
+        <v>0.77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -716,16 +850,25 @@
       <c r="D15">
         <v>0.45</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.67</v>
+      </c>
+      <c r="F15">
+        <v>0.35</v>
+      </c>
+      <c r="G15">
+        <v>0.46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -733,18 +876,39 @@
       <c r="D16">
         <v>0.68</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+      <c r="E16">
+        <v>0.69</v>
+      </c>
+      <c r="F16">
+        <v>0.95</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
         <f>AVERAGE(C2:C16)</f>
         <v>1</v>
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D16)</f>
         <v>0.64866666666666661</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:G18" si="0">AVERAGE(E2:E16)</f>
+        <v>0.7333333333333335</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70533333333333348</v>
       </c>
     </row>
   </sheetData>
